--- a/BOM/digikey_FMU3-power_Bom.xlsx
+++ b/BOM/digikey_FMU3-power_Bom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thepeach\Desktop\DroneMap_education\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7617E-C248-4092-89C9-AE8AC5BF9688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="500"/>
+    <workbookView xWindow="4164" yWindow="2856" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>제조업체 부품 번호</t>
   </si>
@@ -45,15 +46,9 @@
     <t>금액</t>
   </si>
   <si>
-    <t>주문 가능 수량</t>
-  </si>
-  <si>
     <t>제품 요약</t>
   </si>
   <si>
-    <t>REACH 분류 상태</t>
-  </si>
-  <si>
     <t>CC0402ZRY5V7BB104</t>
   </si>
   <si>
@@ -75,9 +70,6 @@
     <t>CAP CER 0.1UF 16V Y5V 0402</t>
   </si>
   <si>
-    <t>REACH 비적용 대상</t>
-  </si>
-  <si>
     <t>CL21A226MAQNNNE</t>
   </si>
   <si>
@@ -157,20 +149,38 @@
   </si>
   <si>
     <t>CAP CER 10000PF 16V X7R 0402</t>
-  </si>
-  <si>
-    <t>사용 불가</t>
   </si>
   <si>
     <t>FMU3_POWER</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/yageo/CC0402ZRY5V7BB104/311-1047-1-ND/302964</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/samsung-electro-mechanics/CL21A226MAQNNNE/1276-2908-1-ND/3890994</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/samsung-electro-mechanics/CL21A106KAYNNNE/1276-2891-1-ND/3890977</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/yageo/CC0603ZRY5V7BB105/311-1372-1-ND/2103156</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/microchip-technology/MIC5332-SSYMT-TR/576-4110-1-ND/3671745</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/yageo/RC0402JR-0710KL/311-10KJRCT-ND/729365</t>
+  </si>
+  <si>
+    <t>https://www.digikey.kr/product-detail/ko/murata-electronics/GRM155R71C103KA01J/490-6326-1-ND/3845523</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -192,6 +202,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,16 +226,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -496,35 +515,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,28 +568,22 @@
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -582,33 +592,30 @@
         <v>132</v>
       </c>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
-        <v>3325409</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -617,33 +624,30 @@
         <v>701</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="I6">
-        <v>937889</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -652,33 +656,30 @@
         <v>370</v>
       </c>
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="I7">
-        <v>1775596</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -687,33 +688,30 @@
         <v>145</v>
       </c>
       <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="I8">
-        <v>1112848</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -722,33 +720,30 @@
         <v>1256</v>
       </c>
       <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="I9">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -757,33 +752,30 @@
         <v>132</v>
       </c>
       <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="I10">
-        <v>1575812</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -792,21 +784,27 @@
         <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>1198999</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{81A0412D-0F85-40D5-8006-2028B568A312}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{EF851223-CCFD-462E-BD47-28D8EB043440}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{7170DDA0-3EA8-49F8-B75F-46D60AA8D60C}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{0680D273-6126-4BCF-8AF6-65A687896F76}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{0BBA0625-A775-49CD-9B80-8FAFC3A0CEB9}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{42E0E423-D807-4EF5-B5CC-D926A9F7E7FD}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{7DFA2755-796E-47B4-97AB-7640A16EAF57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" copies="2" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" copies="2" r:id="rId8"/>
 </worksheet>
 </file>